--- a/__repository/template_export/template-export-receiveddollar.xlsx
+++ b/__repository/template_export/template-export-receiveddollar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nokia\__repository\template_export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFTWARE 2015\POIN NEW 2016\Template POIN All Database Final\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,42 +24,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>REPORT PO RECEIVED WITH PRICE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Phase Name</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>PO Type</t>
+  </si>
+  <si>
+    <t>PO No</t>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>Material Number</t>
+  </si>
+  <si>
+    <t>Item Text</t>
+  </si>
+  <si>
+    <t>Short Text</t>
+  </si>
+  <si>
+    <t>Network Number</t>
+  </si>
+  <si>
+    <t>Materials Quantity</t>
+  </si>
+  <si>
+    <t>Actual Qty</t>
+  </si>
+  <si>
+    <t>Delta Qty</t>
+  </si>
+  <si>
+    <t>Status CR Qty</t>
+  </si>
+  <si>
+    <t>RemarksCR</t>
+  </si>
+  <si>
+    <t>CR No Nokia</t>
+  </si>
+  <si>
+    <t>CR Status</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>materialgrossprice</t>
+  </si>
+  <si>
+    <t>materialnettprice</t>
+  </si>
+  <si>
+    <t>totalgrossprice</t>
+  </si>
+  <si>
+    <t>totalnettprice</t>
+  </si>
+  <si>
+    <t>totalnetactual</t>
+  </si>
+  <si>
+    <t>totalnetdelta</t>
+  </si>
+  <si>
+    <t>Update By</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>UL ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>POIN v2</t>
+  </si>
+  <si>
+    <t>NOKIA</t>
+  </si>
+  <si>
+    <t>REPORT PO RECEIVED ($)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Adobe Gothic Std B"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,20 +224,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -94,77 +293,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2276475" cy="942975"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr="NOKIA_LOGO_RGB_MR.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2276475" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1809750" cy="933450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="image001"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5186363" y="9525"/>
-          <a:ext cx="1809750" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,119 +558,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="25" width="20.7109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1"/>
+    <col min="28" max="29" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <f>SUBTOTAL(3,A6:A5000)</f>
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>